--- a/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
+++ b/Modelos em Python/1 dia a frente(7, 1, 7) (2, 1, 1, 12) 24h Erros todo.xlsx
@@ -457,13 +457,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.43361341562166</v>
+        <v>9.325694072704376</v>
       </c>
       <c r="C2" t="n">
-        <v>42.89480178146186</v>
+        <v>30.24050699141662</v>
       </c>
       <c r="D2" t="n">
-        <v>30.30402886514637</v>
+        <v>16.50235214996689</v>
       </c>
     </row>
     <row r="3">
@@ -473,13 +473,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.64120582981351</v>
+        <v>12.27561573640726</v>
       </c>
       <c r="C3" t="n">
-        <v>59.07999384546795</v>
+        <v>40.21707268688638</v>
       </c>
       <c r="D3" t="n">
-        <v>58.82181812673479</v>
+        <v>28.3039998634834</v>
       </c>
     </row>
     <row r="4">
@@ -489,13 +489,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.76980786949679</v>
+        <v>10.66933363738474</v>
       </c>
       <c r="C4" t="n">
-        <v>49.08620321054765</v>
+        <v>34.40827995251922</v>
       </c>
       <c r="D4" t="n">
-        <v>62.74846409750197</v>
+        <v>45.95727942834857</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.81959732904191</v>
+        <v>9.748542509840714</v>
       </c>
       <c r="C5" t="n">
-        <v>46.76607676829734</v>
+        <v>31.58972861545685</v>
       </c>
       <c r="D5" t="n">
-        <v>59.6238673325586</v>
+        <v>42.36650973741574</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.59387371356779</v>
+        <v>9.370774544793408</v>
       </c>
       <c r="C6" t="n">
-        <v>43.43525695128434</v>
+        <v>30.34859144863045</v>
       </c>
       <c r="D6" t="n">
-        <v>55.72454345712568</v>
+        <v>40.63189807347062</v>
       </c>
     </row>
     <row r="7">
@@ -537,13 +537,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.99957324446856</v>
+        <v>9.807991329003201</v>
       </c>
       <c r="C7" t="n">
-        <v>48.68786137151457</v>
+        <v>32.2932168218989</v>
       </c>
       <c r="D7" t="n">
-        <v>61.65098682441321</v>
+        <v>41.86900785351785</v>
       </c>
     </row>
     <row r="8">
@@ -553,13 +553,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.17411239147685</v>
+        <v>12.04026826801414</v>
       </c>
       <c r="C8" t="n">
-        <v>57.83962057466491</v>
+        <v>39.44531798618851</v>
       </c>
       <c r="D8" t="n">
-        <v>75.1124042224877</v>
+        <v>52.13339613777467</v>
       </c>
     </row>
     <row r="9">
@@ -569,13 +569,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55460188761772</v>
+        <v>12.25464225506381</v>
       </c>
       <c r="C9" t="n">
-        <v>58.89924770101745</v>
+        <v>40.13980021007258</v>
       </c>
       <c r="D9" t="n">
-        <v>76.4443913843252</v>
+        <v>53.09742544317076</v>
       </c>
     </row>
     <row r="10">
@@ -585,13 +585,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.954772943111096</v>
+        <v>1.61708906261106</v>
       </c>
       <c r="C10" t="n">
-        <v>7.28480933512531</v>
+        <v>7.363030303251704</v>
       </c>
       <c r="D10" t="n">
-        <v>9.438530112110428</v>
+        <v>8.360199061530118</v>
       </c>
     </row>
     <row r="11">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.58498494233553</v>
+        <v>17.59799612625158</v>
       </c>
       <c r="C11" t="n">
-        <v>77.6197520855216</v>
+        <v>57.79602832222822</v>
       </c>
       <c r="D11" t="n">
-        <v>81.92649981126912</v>
+        <v>63.97853782769671</v>
       </c>
     </row>
     <row r="12">
@@ -617,13 +617,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.55153841160319</v>
+        <v>17.7019312008828</v>
       </c>
       <c r="C12" t="n">
-        <v>77.75586167037704</v>
+        <v>58.17667935084872</v>
       </c>
       <c r="D12" t="n">
-        <v>82.02000928879575</v>
+        <v>64.42744652141185</v>
       </c>
     </row>
     <row r="13">
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.69064888383753</v>
+        <v>17.23682318607324</v>
       </c>
       <c r="C13" t="n">
-        <v>77.85998717448804</v>
+        <v>56.3767422557955</v>
       </c>
       <c r="D13" t="n">
-        <v>82.11950063029821</v>
+        <v>63.2648953405002</v>
       </c>
     </row>
   </sheetData>
